--- a/Eighth_Match/8.BARC3-LP0 Stat 22.8.18.xlsx
+++ b/Eighth_Match/8.BARC3-LP0 Stat 22.8.18.xlsx
@@ -337,18 +337,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.6836734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="26" min="11" style="1" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="1" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="26" min="11" style="1" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="1" width="12.6887755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1202,24 +1202,24 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1264,7 +1264,9 @@
       <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="n">
+        <v>0.484736342089283</v>
+      </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="F2" s="8"/>
@@ -1279,7 +1281,9 @@
       <c r="A3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="8" t="n">
+        <v>0.24229797979798</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>

--- a/Eighth_Match/8.BARC3-LP0 Stat 22.8.18.xlsx
+++ b/Eighth_Match/8.BARC3-LP0 Stat 22.8.18.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Individual" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
   <si>
     <t xml:space="preserve">Player Name</t>
   </si>
@@ -59,7 +59,10 @@
     <t xml:space="preserve">Barcelona</t>
   </si>
   <si>
-    <t xml:space="preserve">BARC25</t>
+    <t xml:space="preserve">BARC18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARC14</t>
   </si>
   <si>
     <t xml:space="preserve">BARC3</t>
@@ -68,70 +71,64 @@
     <t xml:space="preserve">BARC20</t>
   </si>
   <si>
+    <t xml:space="preserve">BARC5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARC6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARC9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARC10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARC15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARC8</t>
+  </si>
+  <si>
     <t xml:space="preserve">BARC4</t>
   </si>
   <si>
-    <t xml:space="preserve">BARC15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARC8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARC10</t>
-  </si>
-  <si>
     <t xml:space="preserve">BARC22</t>
   </si>
   <si>
-    <t xml:space="preserve">BARC21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARC18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARC9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLC13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deportivo La Coruña</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLC12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLC24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLC11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLC20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLC8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLC17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLC22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLC15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLC7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLC18</t>
+    <t xml:space="preserve">LP13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las Palmas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP14</t>
   </si>
   <si>
     <t xml:space="preserve">Betweenness Centrality</t>
@@ -331,24 +328,24 @@
   </sheetPr>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.4132653061224"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="26" min="11" style="1" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="1" width="12.6887755102041"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="11" style="1" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="1" width="12.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -391,28 +388,28 @@
         <v>11</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>0.0434156892779008</v>
+        <v>0.0286483798093891</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>0.567326719798239</v>
+        <v>0.385079104003657</v>
       </c>
       <c r="H2" s="5" t="n">
-        <v>0.911111116409302</v>
+        <v>0.75</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>0.0038961038961039</v>
+        <v>0.00234487734487734</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>0.846153846153846</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -423,28 +420,28 @@
         <v>11</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>0.0694682873310443</v>
+        <v>0.091582427784969</v>
       </c>
       <c r="G3" s="5" t="n">
-        <v>0.625896984475055</v>
+        <v>0.95986932877739</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>0.881818175315857</v>
+        <v>0.722222208976746</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>0.00778860028860029</v>
+        <v>0.0290885040885041</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>0.916666666666667</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -455,28 +452,28 @@
         <v>11</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.0763755524404935</v>
+        <v>0.072000665227936</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>0.845641829397795</v>
+        <v>0.867070276938079</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.888888895511627</v>
+        <v>0.709090888500214</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>0.0115007215007215</v>
+        <v>0.044724025974026</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>0.916666666666667</v>
+        <v>0.857142857142857</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -487,28 +484,28 @@
         <v>11</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0994741411947025</v>
+        <v>0.0832409999762512</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1</v>
+        <v>0.906871730132815</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.854545474052429</v>
+        <v>0.672727286815643</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0.0113816738816739</v>
+        <v>0.053790885040885</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>0.846153846153846</v>
+        <v>0.857142857142857</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -519,25 +516,25 @@
         <v>11</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.0746535382230792</v>
+        <v>0.120436179079064</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.836363613605499</v>
+        <v>0.659090936183929</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>0.0272258297258297</v>
+        <v>0.0753186628186628</v>
       </c>
       <c r="J6" s="1" t="n">
         <v>1</v>
@@ -551,28 +548,28 @@
         <v>11</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.106134679763746</v>
+        <v>0.0917701737115878</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1</v>
+        <v>0.994781458794216</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.836363613605499</v>
+        <v>0.736363649368286</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>0.0272258297258297</v>
+        <v>0.0325066137566138</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>1</v>
+        <v>0.923076923076923</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -586,25 +583,25 @@
         <v>47</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0900744097771286</v>
+        <v>0.108891521801011</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.935271850275013</v>
+        <v>0.984948534189511</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.888888895511627</v>
+        <v>0.754545450210571</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>0.00992063492063492</v>
+        <v>0.0247414622414622</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>0.846153846153846</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -615,28 +612,28 @@
         <v>11</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.129131016140355</v>
+        <v>0.081316862133626</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>1</v>
+        <v>0.892437641572966</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>0.854545474052429</v>
+        <v>0.777777791023254</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>0.0113816738816739</v>
+        <v>0.0159481721981722</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>0.846153846153846</v>
+        <v>0.705882352941176</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -647,28 +644,28 @@
         <v>11</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.0648351899243315</v>
+        <v>0.11716193002221</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>1</v>
+        <v>0.969686065487823</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.845454573631287</v>
+        <v>0.745454549789429</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>0.0206240981240981</v>
+        <v>0.0319173881673882</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>0.916666666666667</v>
+        <v>0.857142857142857</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -679,28 +676,28 @@
         <v>11</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0510388704214774</v>
+        <v>0.0434655236486782</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.681876591033809</v>
+        <v>0.717470586377216</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.875</v>
+        <v>0.839285731315613</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>0.00634920634920635</v>
+        <v>0.0108886483886484</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>0.785714285714286</v>
+        <v>0.705882352941176</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -711,28 +708,28 @@
         <v>11</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.105039297909623</v>
+        <v>0.045363044445815</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.945986330080263</v>
+        <v>0.754578581490143</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.845454573631287</v>
+        <v>0.875</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>0.0252056277056277</v>
+        <v>0.00677609427609428</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -743,57 +740,57 @@
         <v>11</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.090359327596118</v>
+        <v>0.0649958313158685</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.945986330080263</v>
+        <v>0.733225207322891</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.911111116409302</v>
+        <v>0.875</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>0.00113636363636364</v>
+        <v>0.00381794131794132</v>
       </c>
       <c r="J13" s="1" t="n">
-        <v>0.733333333333333</v>
+        <v>0.705882352941176</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>24</v>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.022036733212266</v>
+        <v>0.0511264610435941</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.29871644717899</v>
+        <v>0.620573721908072</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.714285731315613</v>
+        <v>0.696428596973419</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>0.00903679653679654</v>
+        <v>0.0166215728715729</v>
       </c>
       <c r="J14" s="1" t="n">
         <v>0.705882352941176</v>
@@ -801,34 +798,34 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="C15" s="5" t="n">
-        <v>11</v>
-      </c>
       <c r="D15" s="5" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0415509269337204</v>
+        <v>0.0551134618117262</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.444868139449029</v>
+        <v>0.72665260764077</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.811111092567444</v>
+        <v>0.866666674613953</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>0.00937950937950938</v>
+        <v>0.00760582010582011</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -836,31 +833,31 @@
         <v>26</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.0504797002970866</v>
+        <v>0.082829151212877</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.610896875426089</v>
+        <v>0.917005544296829</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.722222208976746</v>
+        <v>0.855555534362793</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>0.0228174603174603</v>
+        <v>0.0115740740740741</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>0.8</v>
+        <v>0.909090909090909</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -868,31 +865,31 @@
         <v>27</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.11086914783996</v>
+        <v>0.0596320456465407</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1</v>
+        <v>0.72665260764077</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.651515126228333</v>
+        <v>0.875</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>0.0793380230880231</v>
+        <v>0.00277777777777778</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>0.923076923076923</v>
+        <v>0.833333333333333</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -900,31 +897,31 @@
         <v>28</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.119124375674892</v>
+        <v>0.0710016973019607</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.886615687548791</v>
+        <v>0.917005544296829</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.674242436885834</v>
+        <v>0.902777791023254</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>0.0341360028860029</v>
+        <v>0.0122354497354497</v>
       </c>
       <c r="J18" s="1" t="n">
-        <v>0.857142857142857</v>
+        <v>0.909090909090909</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -932,31 +929,31 @@
         <v>29</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.0955987517993061</v>
+        <v>0.0965081874043229</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.886615687548791</v>
+        <v>0.747025288099976</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.766666650772095</v>
+        <v>0.866666674613953</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>0.0182088744588745</v>
+        <v>0.0101851851851852</v>
       </c>
       <c r="J19" s="1" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -964,31 +961,31 @@
         <v>30</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>69</v>
+        <v>170</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0.122185969635917</v>
+        <v>0.176914107923269</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.786127162602724</v>
+        <v>1</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.777777791023254</v>
+        <v>0.833333313465118</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>0.0103264790764791</v>
+        <v>0.033531746031746</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -996,31 +993,31 @@
         <v>31</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.0326684530343844</v>
+        <v>0.127392108153893</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.504114881038493</v>
+        <v>1</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.736111104488373</v>
+        <v>0.833333313465118</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>0.0109397546897547</v>
+        <v>0.033531746031746</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>0.666666666666667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1028,31 +1025,31 @@
         <v>32</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>30</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.0833790304128085</v>
+        <v>0.0988458095877361</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.968651745642859</v>
+        <v>0.924799791705182</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.681818187236786</v>
+        <v>0.875</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>0.0446518759018759</v>
+        <v>0.0154761904761905</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>0.75</v>
+        <v>0.833333333333333</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1060,31 +1057,31 @@
         <v>33</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E23" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="C23" s="5" t="n">
-        <v>24</v>
-      </c>
-      <c r="D23" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>54</v>
-      </c>
       <c r="F23" s="5" t="n">
-        <v>0.0832438921355579</v>
+        <v>0.0488946516660253</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.968651745642859</v>
+        <v>0.801852815935588</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>0.709090888500214</v>
+        <v>0.902777791023254</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>0.0504058441558442</v>
+        <v>0.00138888888888889</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>0.857142857142857</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1092,31 +1089,31 @@
         <v>34</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" s="5" t="n">
         <v>37</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.112785457952041</v>
+        <v>0.0830969334175167</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.782798982050481</v>
+        <v>0.917005544296829</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.736363649368286</v>
+        <v>0.866666674613953</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>0.0314484126984127</v>
+        <v>0.00760582010582011</v>
       </c>
       <c r="J24" s="1" t="n">
-        <v>0.8</v>
+        <v>0.833333333333333</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1124,69 +1121,60 @@
         <v>35</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>0.0849134591242673</v>
+        <v>0.0997718458741322</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>0.9050034950848</v>
+        <v>1</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>0.74444442987442</v>
+        <v>0.844444453716278</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>0.0289862914862915</v>
+        <v>0.0307539682539682</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="D26" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="E26" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="F26" s="1" t="n">
-        <v>0.041164101947793</v>
-      </c>
-      <c r="G26" s="1" t="n">
-        <v>0.584348663299929</v>
-      </c>
-      <c r="H26" s="1" t="n">
-        <v>0.88095235824585</v>
-      </c>
-      <c r="I26" s="1" t="n">
-        <v>0.00638528138528139</v>
-      </c>
-      <c r="J26" s="1" t="n">
-        <v>0.666666666666667</v>
-      </c>
-    </row>
+        <v>0.909090909090909</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1201,25 +1189,25 @@
   </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="27.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="20.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.23"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1230,13 +1218,13 @@
         <v>9</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -1245,60 +1233,101 @@
         <v>3</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>0.484736342089283</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+      <c r="C2" s="8" t="n">
+        <v>0.0525548140131474</v>
+      </c>
+      <c r="D2" s="8" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.784009546539379</v>
+      </c>
+      <c r="F2" s="8" t="n">
+        <v>0.613365155131265</v>
+      </c>
+      <c r="G2" s="8" t="n">
+        <v>0.954653937947494</v>
+      </c>
+      <c r="H2" s="8" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="I2" s="8" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="J2" s="5" t="n">
+        <v>427</v>
+      </c>
+      <c r="K2" s="9" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="L2" s="9" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>0.24229797979798</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
+      <c r="C3" s="1" t="n">
+        <v>0.020218253968254</v>
+      </c>
+      <c r="D3" s="8" t="n">
+        <v>0.864</v>
+      </c>
+      <c r="E3" s="8" t="n">
+        <v>1.10585585585586</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1.03153153153153</v>
+      </c>
+      <c r="G3" s="8" t="n">
+        <v>1.18018018018018</v>
+      </c>
+      <c r="H3" s="8" t="n">
+        <v>0.866</v>
+      </c>
+      <c r="I3" s="8" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="J3" s="5" t="n">
+        <v>476</v>
+      </c>
+      <c r="K3" s="9" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="L3" s="9" t="n">
+        <v>0.53</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
